--- a/mau dang ky/Nguyen Van Hien_Promotion Theme Register Form.xlsx
+++ b/mau dang ky/Nguyen Van Hien_Promotion Theme Register Form.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Document\Promotion\PROMOTION (FY2022)\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\2025\2025document\mau dang ky\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -1000,7 +1000,7 @@
     <numFmt numFmtId="164" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="165" formatCode="#,##0.0"/>
   </numFmts>
-  <fonts count="14" x14ac:knownFonts="1">
+  <fonts count="14">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1975,7 +1975,6 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -2252,7 +2251,6 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -2353,7 +2351,6 @@
             <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:layout/>
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
                   <c:spPr>
@@ -2882,9 +2879,7 @@
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:layout/>
-                </c:ext>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                   <c16:uniqueId val="{00000002-AC33-48A2-B6B8-2488D46395B2}"/>
                 </c:ext>
@@ -2930,7 +2925,6 @@
               <c:showBubbleSize val="0"/>
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:layout/>
                   <c15:dlblFieldTable/>
                   <c15:showDataLabelsRange val="0"/>
                 </c:ext>
@@ -2941,7 +2935,6 @@
             </c:dLbl>
             <c:dLbl>
               <c:idx val="2"/>
-              <c:layout/>
               <c:dLblPos val="inEnd"/>
               <c:showLegendKey val="0"/>
               <c:showVal val="1"/>
@@ -2950,9 +2943,7 @@
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:layout/>
-                </c:ext>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                   <c16:uniqueId val="{00000004-AC33-48A2-B6B8-2488D46395B2}"/>
                 </c:ext>
@@ -3261,7 +3252,6 @@
             <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:layout/>
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
                   <c:spPr>
@@ -3396,9 +3386,7 @@
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:layout/>
-                </c:ext>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                   <c16:uniqueId val="{00000004-EB00-4821-B581-B3A632EF4FB8}"/>
                 </c:ext>
@@ -3420,9 +3408,7 @@
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:layout/>
-                </c:ext>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                   <c16:uniqueId val="{00000005-EB00-4821-B581-B3A632EF4FB8}"/>
                 </c:ext>
@@ -3444,9 +3430,7 @@
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:layout/>
-                </c:ext>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                   <c16:uniqueId val="{00000000-0E96-4BA8-8EAC-4562416EF20A}"/>
                 </c:ext>
@@ -3584,7 +3568,7 @@
                     <c:extLst>
                       <c:ext uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
                       <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                        <c16:uniqueId val="{00000000-78A3-4407-90A0-67DD01C516D2}"/>
+                        <c16:uniqueId val="{00000000-F258-4FBA-B3F1-799B256EA369}"/>
                       </c:ext>
                     </c:extLst>
                   </c15:dLbl>
@@ -3609,7 +3593,7 @@
                     <c:extLst>
                       <c:ext uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
                       <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                        <c16:uniqueId val="{00000001-78A3-4407-90A0-67DD01C516D2}"/>
+                        <c16:uniqueId val="{00000001-F258-4FBA-B3F1-799B256EA369}"/>
                       </c:ext>
                     </c:extLst>
                   </c15:dLbl>
@@ -3682,7 +3666,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -3831,7 +3814,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -3924,7 +3906,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -4043,7 +4024,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -4144,7 +4124,6 @@
             <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:layout/>
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
                   <c:spPr>
@@ -4297,7 +4276,6 @@
             <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:layout/>
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
                   <c:spPr>
@@ -4393,7 +4371,6 @@
         <c:delete val="0"/>
         <c:axPos val="b"/>
         <c:title>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -4519,7 +4496,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -4594,7 +4570,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -4683,7 +4658,6 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -4772,7 +4746,6 @@
             <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:layout/>
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
                   <c:spPr>
@@ -4908,7 +4881,6 @@
             <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:layout/>
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
                   <c:spPr>
@@ -5069,7 +5041,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -5298,7 +5269,6 @@
           <c:dLbls>
             <c:dLbl>
               <c:idx val="0"/>
-              <c:layout/>
               <c:tx>
                 <c:rich>
                   <a:bodyPr/>
@@ -5364,7 +5334,6 @@
               <c:showBubbleSize val="0"/>
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:layout/>
                   <c15:dlblFieldTable/>
                   <c15:showDataLabelsRange val="0"/>
                 </c:ext>
@@ -5375,7 +5344,6 @@
             </c:dLbl>
             <c:dLbl>
               <c:idx val="1"/>
-              <c:layout/>
               <c:tx>
                 <c:rich>
                   <a:bodyPr/>
@@ -5443,7 +5411,6 @@
               <c:showBubbleSize val="0"/>
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:layout/>
                   <c15:dlblFieldTable/>
                   <c15:showDataLabelsRange val="0"/>
                 </c:ext>
@@ -5858,7 +5825,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -5972,7 +5938,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -6064,7 +6029,6 @@
             <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:layout/>
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
                   <c:spPr>
@@ -6183,7 +6147,6 @@
             <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:layout/>
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
                   <c:spPr>
@@ -6288,7 +6251,6 @@
             <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:layout/>
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
                   <c:spPr>
@@ -6449,7 +6411,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -6676,9 +6637,7 @@
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:layout/>
-                </c:ext>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                   <c16:uniqueId val="{00000006-AEB4-4C27-B0BE-10786ADE93B2}"/>
                 </c:ext>
@@ -6699,9 +6658,7 @@
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:layout/>
-                </c:ext>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                   <c16:uniqueId val="{00000008-AEB4-4C27-B0BE-10786ADE93B2}"/>
                 </c:ext>
@@ -6746,7 +6703,6 @@
             <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:layout/>
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
                   <c:spPr>
@@ -7011,9 +6967,7 @@
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:layout/>
-                </c:ext>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                   <c16:uniqueId val="{00000005-AEB4-4C27-B0BE-10786ADE93B2}"/>
                 </c:ext>
@@ -7035,9 +6989,7 @@
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:layout/>
-                </c:ext>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                   <c16:uniqueId val="{00000009-AEB4-4C27-B0BE-10786ADE93B2}"/>
                 </c:ext>
@@ -7058,9 +7010,7 @@
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:layout/>
-                </c:ext>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                   <c16:uniqueId val="{00000007-AEB4-4C27-B0BE-10786ADE93B2}"/>
                 </c:ext>
@@ -7104,7 +7054,6 @@
             <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:layout/>
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
                   <c:spPr>
@@ -7289,7 +7238,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -7387,7 +7335,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -7480,7 +7427,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -7755,9 +7701,7 @@
               </c:spPr>
             </c:leaderLines>
             <c:extLst>
-              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:layout/>
-              </c:ext>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
             </c:extLst>
           </c:dLbls>
           <c:cat>
@@ -14094,7 +14038,7 @@
               <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
               <a:extLst>
                 <a:ext uri="{84589F7E-364E-4C9E-8A38-B11213B215E9}">
-                  <a14:cameraTool cellRange="Sheet2!$B$5:$D$11" spid="_x0000_s1267"/>
+                  <a14:cameraTool cellRange="Sheet2!$B$5:$D$11" spid="_x0000_s1270"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPicPr>
@@ -19098,11 +19042,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K44"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="130" zoomScaleNormal="100" zoomScaleSheetLayoutView="130" workbookViewId="0">
+    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A4" zoomScale="130" zoomScaleNormal="100" zoomScaleSheetLayoutView="130" workbookViewId="0">
       <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="9.140625" style="1"/>
     <col min="2" max="2" width="26" style="1" customWidth="1"/>
@@ -19115,7 +19059,7 @@
     <col min="9" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10">
       <c r="A1" s="17" t="s">
         <v>9</v>
       </c>
@@ -19127,7 +19071,7 @@
       <c r="G1" s="16"/>
       <c r="H1" s="16"/>
     </row>
-    <row r="2" spans="1:10" ht="26.25" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:10" ht="26.25">
       <c r="A2" s="46" t="s">
         <v>0</v>
       </c>
@@ -19139,7 +19083,7 @@
       <c r="G2" s="46"/>
       <c r="H2" s="46"/>
     </row>
-    <row r="3" spans="1:10" s="2" customFormat="1" ht="38.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:10" s="2" customFormat="1" ht="38.25" customHeight="1">
       <c r="A3" s="49" t="s">
         <v>40</v>
       </c>
@@ -19160,7 +19104,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="4" spans="1:10" ht="17.25" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:10" ht="17.25">
       <c r="A4" s="30" t="s">
         <v>1</v>
       </c>
@@ -19177,7 +19121,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:10">
       <c r="A5" s="40" t="s">
         <v>95</v>
       </c>
@@ -19191,7 +19135,7 @@
       <c r="G5" s="6"/>
       <c r="H5" s="7"/>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:10">
       <c r="A6" s="18" t="s">
         <v>100</v>
       </c>
@@ -19203,7 +19147,7 @@
       <c r="G6" s="6"/>
       <c r="H6" s="7"/>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:10">
       <c r="A7" s="18" t="s">
         <v>101</v>
       </c>
@@ -19218,7 +19162,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:10">
       <c r="A8" s="18" t="s">
         <v>102</v>
       </c>
@@ -19233,7 +19177,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:10">
       <c r="A9" s="5" t="s">
         <v>105</v>
       </c>
@@ -19248,7 +19192,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:10">
       <c r="A10" s="40" t="s">
         <v>96</v>
       </c>
@@ -19263,7 +19207,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:10">
       <c r="A11" s="18" t="s">
         <v>97</v>
       </c>
@@ -19278,7 +19222,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:10">
       <c r="A12" s="18" t="s">
         <v>106</v>
       </c>
@@ -19290,7 +19234,7 @@
       <c r="G12" s="6"/>
       <c r="H12" s="7"/>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:10">
       <c r="A13" s="18" t="s">
         <v>98</v>
       </c>
@@ -19302,7 +19246,7 @@
       <c r="G13" s="6"/>
       <c r="H13" s="7"/>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:10">
       <c r="A14" s="18" t="s">
         <v>107</v>
       </c>
@@ -19314,7 +19258,7 @@
       <c r="G14" s="6"/>
       <c r="H14" s="7"/>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:10">
       <c r="A15" s="5"/>
       <c r="B15" s="6"/>
       <c r="C15" s="6"/>
@@ -19324,7 +19268,7 @@
       <c r="G15" s="6"/>
       <c r="H15" s="7"/>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:10">
       <c r="A16" s="28" t="s">
         <v>108</v>
       </c>
@@ -19336,7 +19280,7 @@
       <c r="G16" s="6"/>
       <c r="H16" s="7"/>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:11">
       <c r="A17" s="5"/>
       <c r="B17" s="6"/>
       <c r="C17" s="6"/>
@@ -19346,7 +19290,7 @@
       <c r="G17" s="6"/>
       <c r="H17" s="7"/>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:11">
       <c r="A18" s="5"/>
       <c r="B18" s="6"/>
       <c r="C18" s="6"/>
@@ -19357,7 +19301,7 @@
       <c r="H18" s="7"/>
       <c r="K18"/>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:11">
       <c r="A19" s="5"/>
       <c r="B19" s="6"/>
       <c r="C19" s="6"/>
@@ -19367,7 +19311,7 @@
       <c r="G19" s="6"/>
       <c r="H19" s="7"/>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:11">
       <c r="A20" s="5"/>
       <c r="B20" s="6"/>
       <c r="C20" s="6"/>
@@ -19377,7 +19321,7 @@
       <c r="G20" s="6"/>
       <c r="H20" s="7"/>
     </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:11">
       <c r="A21" s="5"/>
       <c r="B21" s="6"/>
       <c r="C21" s="6"/>
@@ -19389,7 +19333,7 @@
       <c r="G21" s="6"/>
       <c r="H21" s="7"/>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:11">
       <c r="A22" s="5"/>
       <c r="B22" s="6"/>
       <c r="C22" s="6"/>
@@ -19399,7 +19343,7 @@
       <c r="G22" s="6"/>
       <c r="H22" s="7"/>
     </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:11">
       <c r="A23" s="5"/>
       <c r="B23" s="6"/>
       <c r="C23" s="6"/>
@@ -19409,7 +19353,7 @@
       <c r="G23" s="6"/>
       <c r="H23" s="7"/>
     </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:11">
       <c r="A24" s="5"/>
       <c r="B24" s="6"/>
       <c r="C24" s="6"/>
@@ -19419,7 +19363,7 @@
       <c r="G24" s="6"/>
       <c r="H24" s="7"/>
     </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:11">
       <c r="A25" s="28" t="s">
         <v>99</v>
       </c>
@@ -19432,7 +19376,7 @@
       <c r="H25" s="7"/>
       <c r="J25"/>
     </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:11">
       <c r="A26" s="18" t="s">
         <v>109</v>
       </c>
@@ -19444,7 +19388,7 @@
       <c r="G26" s="6"/>
       <c r="H26" s="7"/>
     </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:11">
       <c r="A27" s="18" t="s">
         <v>104</v>
       </c>
@@ -19456,7 +19400,7 @@
       <c r="G27" s="6"/>
       <c r="H27" s="7"/>
     </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:11">
       <c r="A28" s="18" t="s">
         <v>94</v>
       </c>
@@ -19468,7 +19412,7 @@
       <c r="G28" s="6"/>
       <c r="H28" s="7"/>
     </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:11">
       <c r="A29" s="39" t="s">
         <v>110</v>
       </c>
@@ -19480,7 +19424,7 @@
       <c r="G29" s="6"/>
       <c r="H29" s="7"/>
     </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:11">
       <c r="A30" s="28" t="s">
         <v>111</v>
       </c>
@@ -19492,7 +19436,7 @@
       <c r="G30" s="6"/>
       <c r="H30" s="7"/>
     </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:11">
       <c r="A31" s="5"/>
       <c r="B31" s="6"/>
       <c r="C31" s="6"/>
@@ -19502,7 +19446,7 @@
       <c r="G31" s="6"/>
       <c r="H31" s="7"/>
     </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:11">
       <c r="A32" s="5"/>
       <c r="B32" s="6"/>
       <c r="C32" s="6"/>
@@ -19512,7 +19456,7 @@
       <c r="G32" s="6"/>
       <c r="H32" s="7"/>
     </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:8">
       <c r="A33" s="5"/>
       <c r="B33" s="6"/>
       <c r="C33" s="6"/>
@@ -19522,7 +19466,7 @@
       <c r="G33" s="6"/>
       <c r="H33" s="7"/>
     </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:8">
       <c r="A34" s="5"/>
       <c r="B34" s="6"/>
       <c r="C34" s="6"/>
@@ -19532,7 +19476,7 @@
       <c r="G34" s="6"/>
       <c r="H34" s="7"/>
     </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:8">
       <c r="A35" s="5"/>
       <c r="B35" s="6"/>
       <c r="C35" s="6"/>
@@ -19542,7 +19486,7 @@
       <c r="G35" s="6"/>
       <c r="H35" s="7"/>
     </row>
-    <row r="36" spans="1:8" ht="17.25" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:8" ht="17.25">
       <c r="A36" s="5"/>
       <c r="B36" s="6"/>
       <c r="C36"/>
@@ -19554,7 +19498,7 @@
       <c r="G36" s="3"/>
       <c r="H36" s="4"/>
     </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:8">
       <c r="A37" s="5"/>
       <c r="B37" s="6"/>
       <c r="C37" s="6"/>
@@ -19564,7 +19508,7 @@
       <c r="G37" s="6"/>
       <c r="H37" s="7"/>
     </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:8">
       <c r="A38" s="5"/>
       <c r="B38" s="6"/>
       <c r="C38" s="6"/>
@@ -19574,7 +19518,7 @@
       <c r="G38" s="6"/>
       <c r="H38" s="7"/>
     </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:8">
       <c r="A39" s="5"/>
       <c r="B39" s="6"/>
       <c r="C39"/>
@@ -19584,7 +19528,7 @@
       <c r="G39" s="6"/>
       <c r="H39" s="7"/>
     </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:8">
       <c r="A40" s="5"/>
       <c r="B40" s="6"/>
       <c r="C40" s="6"/>
@@ -19594,7 +19538,7 @@
       <c r="G40" s="6"/>
       <c r="H40" s="7"/>
     </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:8">
       <c r="A41" s="5"/>
       <c r="B41" s="6"/>
       <c r="C41" s="6"/>
@@ -19604,7 +19548,7 @@
       <c r="G41" s="6"/>
       <c r="H41" s="7"/>
     </row>
-    <row r="42" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:8">
       <c r="A42" s="5"/>
       <c r="B42" s="6"/>
       <c r="C42" s="6"/>
@@ -19614,7 +19558,7 @@
       <c r="G42" s="6"/>
       <c r="H42" s="7"/>
     </row>
-    <row r="43" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:8">
       <c r="A43" s="5"/>
       <c r="B43" s="6"/>
       <c r="C43" s="6"/>
@@ -19624,7 +19568,7 @@
       <c r="G43" s="6"/>
       <c r="H43" s="7"/>
     </row>
-    <row r="44" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:8">
       <c r="A44" s="8"/>
       <c r="B44" s="9"/>
       <c r="C44" s="9"/>
@@ -19657,12 +19601,12 @@
       <selection activeCell="B5" sqref="B5:D11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="2" max="4" width="25" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:4">
       <c r="B5" s="12" t="s">
         <v>5</v>
       </c>
@@ -19673,32 +19617,32 @@
         <v>7</v>
       </c>
     </row>
-    <row r="6" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:4">
       <c r="B6" s="13"/>
       <c r="C6" s="13"/>
       <c r="D6" s="13"/>
     </row>
-    <row r="7" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:4">
       <c r="B7" s="14"/>
       <c r="C7" s="14"/>
       <c r="D7" s="14"/>
     </row>
-    <row r="8" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:4">
       <c r="B8" s="14"/>
       <c r="C8" s="14"/>
       <c r="D8" s="14"/>
     </row>
-    <row r="9" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:4">
       <c r="B9" s="14"/>
       <c r="C9" s="14"/>
       <c r="D9" s="14"/>
     </row>
-    <row r="10" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:4">
       <c r="B10" s="14"/>
       <c r="C10" s="14"/>
       <c r="D10" s="14"/>
     </row>
-    <row r="11" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:4">
       <c r="B11" s="15" t="s">
         <v>8</v>
       </c>
@@ -19723,99 +19667,99 @@
       <selection activeCell="N14" sqref="N14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:1">
       <c r="A1" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:1">
       <c r="A3" s="19" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:1">
       <c r="A4" s="18" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:1">
       <c r="A5" s="18" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:1">
       <c r="A6" s="20" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:1">
       <c r="A7" s="20" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:1">
       <c r="A8" s="20" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:1">
       <c r="A9" s="19" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:1">
       <c r="A10" s="21" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="11" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:1">
       <c r="A11" s="21" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="12" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:1">
       <c r="A12" s="21" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="13" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:1">
       <c r="A13" s="21" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="15" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:1">
       <c r="A15" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:5">
       <c r="A17" s="19" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:5">
       <c r="A19" s="20" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:5">
       <c r="A20" s="20" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:5">
       <c r="A21" s="20" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:5">
       <c r="A22" s="21" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:5">
       <c r="A24" s="22" t="s">
         <v>28</v>
       </c>
@@ -19832,42 +19776,42 @@
         <v>38</v>
       </c>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:5">
       <c r="A28" s="19" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:5">
       <c r="A30" s="20" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:5">
       <c r="A31" s="20" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:5">
       <c r="A32" s="20" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:6">
       <c r="A33" s="21" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:6">
       <c r="A34" s="21" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:6">
       <c r="A35" s="21" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:6">
       <c r="A37" s="22" t="s">
         <v>28</v>
       </c>
@@ -19901,7 +19845,7 @@
       <selection activeCell="Q120" sqref="Q120"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="18.75"/>
   <cols>
     <col min="1" max="1" width="17" style="27" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="31.7109375" style="27" customWidth="1"/>
@@ -19921,7 +19865,7 @@
     <col min="25" max="16384" width="9.140625" style="27"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:24">
       <c r="A2" s="26" t="s">
         <v>43</v>
       </c>
@@ -19969,12 +19913,12 @@
       </c>
       <c r="P2" s="26"/>
     </row>
-    <row r="3" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:24">
       <c r="B3" s="27" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="4" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:24">
       <c r="A4" s="27" t="s">
         <v>48</v>
       </c>
@@ -19985,7 +19929,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="5" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:24">
       <c r="B5" s="27" t="s">
         <v>59</v>
       </c>
@@ -19993,7 +19937,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="6" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:24">
       <c r="B6" s="27" t="s">
         <v>61</v>
       </c>
@@ -20001,7 +19945,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="7" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:24">
       <c r="A7" s="27" t="s">
         <v>62</v>
       </c>
@@ -20015,17 +19959,17 @@
         <v>54</v>
       </c>
     </row>
-    <row r="8" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:24">
       <c r="B8" s="27" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="9" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:24">
       <c r="B9" s="27" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="13" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:24">
       <c r="Q13" s="27" t="s">
         <v>68</v>
       </c>
@@ -20033,7 +19977,7 @@
         <v>0.6</v>
       </c>
     </row>
-    <row r="14" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:24">
       <c r="Q14" s="27" t="s">
         <v>69</v>
       </c>
@@ -20041,7 +19985,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="15" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:24">
       <c r="Q15" s="27" t="s">
         <v>70</v>
       </c>
@@ -20049,7 +19993,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="18" spans="16:22" x14ac:dyDescent="0.3">
+    <row r="18" spans="16:22">
       <c r="P18" s="27" t="s">
         <v>80</v>
       </c>
@@ -20066,7 +20010,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="19" spans="16:22" x14ac:dyDescent="0.3">
+    <row r="19" spans="16:22">
       <c r="P19" s="27">
         <v>1</v>
       </c>
@@ -20083,7 +20027,7 @@
         <v>250000</v>
       </c>
     </row>
-    <row r="20" spans="16:22" x14ac:dyDescent="0.3">
+    <row r="20" spans="16:22">
       <c r="P20" s="27">
         <v>2</v>
       </c>
@@ -20100,7 +20044,7 @@
         <v>120000</v>
       </c>
     </row>
-    <row r="21" spans="16:22" x14ac:dyDescent="0.3">
+    <row r="21" spans="16:22">
       <c r="P21" s="27">
         <v>3</v>
       </c>
@@ -20117,7 +20061,7 @@
         <v>160000</v>
       </c>
     </row>
-    <row r="22" spans="16:22" x14ac:dyDescent="0.3">
+    <row r="22" spans="16:22">
       <c r="P22" s="27">
         <v>4</v>
       </c>
@@ -20134,7 +20078,7 @@
         <v>180000</v>
       </c>
     </row>
-    <row r="23" spans="16:22" x14ac:dyDescent="0.3">
+    <row r="23" spans="16:22">
       <c r="P23" s="27">
         <v>5</v>
       </c>
@@ -20151,7 +20095,7 @@
         <v>92000</v>
       </c>
     </row>
-    <row r="25" spans="16:22" x14ac:dyDescent="0.3">
+    <row r="25" spans="16:22">
       <c r="Q25" s="32"/>
       <c r="R25" s="32">
         <v>2017</v>
@@ -20169,7 +20113,7 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="26" spans="16:22" x14ac:dyDescent="0.3">
+    <row r="26" spans="16:22">
       <c r="Q26" s="32" t="s">
         <v>77</v>
       </c>
@@ -20189,7 +20133,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="27" spans="16:22" x14ac:dyDescent="0.3">
+    <row r="27" spans="16:22">
       <c r="Q27" s="32" t="s">
         <v>78</v>
       </c>
@@ -20209,7 +20153,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="28" spans="16:22" x14ac:dyDescent="0.3">
+    <row r="28" spans="16:22">
       <c r="Q28" s="32" t="s">
         <v>79</v>
       </c>
@@ -20219,21 +20163,21 @@
       <c r="U28" s="33"/>
       <c r="V28" s="33"/>
     </row>
-    <row r="31" spans="16:22" x14ac:dyDescent="0.3">
+    <row r="31" spans="16:22">
       <c r="S31" s="27" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="33" spans="16:25" x14ac:dyDescent="0.3">
+    <row r="33" spans="16:25">
       <c r="S33" s="31"/>
     </row>
-    <row r="34" spans="16:25" x14ac:dyDescent="0.3">
+    <row r="34" spans="16:25">
       <c r="S34" s="31"/>
     </row>
-    <row r="35" spans="16:25" x14ac:dyDescent="0.3">
+    <row r="35" spans="16:25">
       <c r="S35" s="31"/>
     </row>
-    <row r="37" spans="16:25" x14ac:dyDescent="0.3">
+    <row r="37" spans="16:25">
       <c r="Q37" s="27">
         <v>2017</v>
       </c>
@@ -20250,7 +20194,7 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="38" spans="16:25" x14ac:dyDescent="0.3">
+    <row r="38" spans="16:25">
       <c r="P38" s="27" t="s">
         <v>82</v>
       </c>
@@ -20276,7 +20220,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="39" spans="16:25" x14ac:dyDescent="0.3">
+    <row r="39" spans="16:25">
       <c r="P39" s="27" t="s">
         <v>83</v>
       </c>
@@ -20307,7 +20251,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="42" spans="16:25" x14ac:dyDescent="0.3">
+    <row r="42" spans="16:25">
       <c r="P42" s="27" t="s">
         <v>82</v>
       </c>
@@ -20315,7 +20259,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="43" spans="16:25" x14ac:dyDescent="0.3">
+    <row r="43" spans="16:25">
       <c r="P43" s="27" t="s">
         <v>84</v>
       </c>
@@ -20327,7 +20271,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="44" spans="16:25" x14ac:dyDescent="0.3">
+    <row r="44" spans="16:25">
       <c r="P44" s="27" t="s">
         <v>85</v>
       </c>
@@ -20339,7 +20283,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="45" spans="16:25" x14ac:dyDescent="0.3">
+    <row r="45" spans="16:25">
       <c r="P45" s="27" t="s">
         <v>70</v>
       </c>
@@ -20351,7 +20295,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="65" spans="17:23" x14ac:dyDescent="0.3">
+    <row r="65" spans="17:23">
       <c r="Q65" s="34" t="s">
         <v>86</v>
       </c>
@@ -20364,7 +20308,7 @@
       <c r="V65"/>
       <c r="W65"/>
     </row>
-    <row r="66" spans="17:23" x14ac:dyDescent="0.3">
+    <row r="66" spans="17:23">
       <c r="Q66" s="35"/>
       <c r="R66" s="35">
         <v>2016</v>
@@ -20385,7 +20329,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="67" spans="17:23" x14ac:dyDescent="0.3">
+    <row r="67" spans="17:23">
       <c r="Q67" s="36" t="s">
         <v>89</v>
       </c>
@@ -20408,7 +20352,7 @@
         <v>22.6</v>
       </c>
     </row>
-    <row r="68" spans="17:23" x14ac:dyDescent="0.3">
+    <row r="68" spans="17:23">
       <c r="Q68" s="36" t="s">
         <v>90</v>
       </c>
@@ -20431,7 +20375,7 @@
         <v>595.5</v>
       </c>
     </row>
-    <row r="69" spans="17:23" x14ac:dyDescent="0.3">
+    <row r="69" spans="17:23">
       <c r="Q69"/>
       <c r="R69" s="38">
         <f>SUM(R67:R68)</f>
@@ -20458,7 +20402,7 @@
         <v>618.1</v>
       </c>
     </row>
-    <row r="70" spans="17:23" x14ac:dyDescent="0.3">
+    <row r="70" spans="17:23">
       <c r="Q70" s="34" t="s">
         <v>91</v>
       </c>
@@ -20469,7 +20413,7 @@
       <c r="V70"/>
       <c r="W70"/>
     </row>
-    <row r="71" spans="17:23" x14ac:dyDescent="0.3">
+    <row r="71" spans="17:23">
       <c r="Q71" s="35"/>
       <c r="R71" s="35">
         <v>2016</v>
@@ -20490,7 +20434,7 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="72" spans="17:23" x14ac:dyDescent="0.3">
+    <row r="72" spans="17:23">
       <c r="Q72" s="36" t="s">
         <v>89</v>
       </c>
@@ -20513,7 +20457,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="73" spans="17:23" x14ac:dyDescent="0.3">
+    <row r="73" spans="17:23">
       <c r="Q73" s="36" t="s">
         <v>90</v>
       </c>
@@ -20536,7 +20480,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="74" spans="17:23" x14ac:dyDescent="0.3">
+    <row r="74" spans="17:23">
       <c r="R74" s="27">
         <f>SUM(R72:R73)</f>
         <v>21</v>
@@ -20562,7 +20506,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="76" spans="17:23" x14ac:dyDescent="0.3">
+    <row r="76" spans="17:23">
       <c r="Q76" s="27" t="s">
         <v>112</v>
       </c>
@@ -20585,7 +20529,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="77" spans="17:23" x14ac:dyDescent="0.3">
+    <row r="77" spans="17:23">
       <c r="Q77" s="27" t="s">
         <v>119</v>
       </c>
@@ -20608,7 +20552,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="78" spans="17:23" x14ac:dyDescent="0.3">
+    <row r="78" spans="17:23">
       <c r="Q78" s="27" t="s">
         <v>125</v>
       </c>
@@ -20631,7 +20575,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="79" spans="17:23" x14ac:dyDescent="0.3">
+    <row r="79" spans="17:23">
       <c r="Q79" s="27" t="s">
         <v>132</v>
       </c>
@@ -20654,7 +20598,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="80" spans="17:23" x14ac:dyDescent="0.3">
+    <row r="80" spans="17:23">
       <c r="Q80" s="27" t="s">
         <v>139</v>
       </c>
@@ -20677,7 +20621,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="81" spans="17:24" x14ac:dyDescent="0.3">
+    <row r="81" spans="17:24">
       <c r="Q81" s="27" t="s">
         <v>146</v>
       </c>
@@ -20700,7 +20644,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="82" spans="17:24" x14ac:dyDescent="0.3">
+    <row r="82" spans="17:24">
       <c r="Q82" s="27" t="s">
         <v>153</v>
       </c>
@@ -20723,7 +20667,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="83" spans="17:24" x14ac:dyDescent="0.3">
+    <row r="83" spans="17:24">
       <c r="R83" s="27" t="s">
         <v>158</v>
       </c>
@@ -20743,7 +20687,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="84" spans="17:24" x14ac:dyDescent="0.3">
+    <row r="84" spans="17:24">
       <c r="Q84" s="41" t="s">
         <v>112</v>
       </c>
@@ -20769,7 +20713,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="85" spans="17:24" x14ac:dyDescent="0.3">
+    <row r="85" spans="17:24">
       <c r="Q85" s="41" t="s">
         <v>119</v>
       </c>
@@ -20792,7 +20736,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="86" spans="17:24" x14ac:dyDescent="0.3">
+    <row r="86" spans="17:24">
       <c r="Q86" s="41" t="s">
         <v>125</v>
       </c>
@@ -20815,7 +20759,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="87" spans="17:24" x14ac:dyDescent="0.3">
+    <row r="87" spans="17:24">
       <c r="Q87" s="41" t="s">
         <v>132</v>
       </c>
@@ -20838,7 +20782,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="88" spans="17:24" x14ac:dyDescent="0.3">
+    <row r="88" spans="17:24">
       <c r="Q88" s="41" t="s">
         <v>139</v>
       </c>
@@ -20861,7 +20805,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="89" spans="17:24" x14ac:dyDescent="0.3">
+    <row r="89" spans="17:24">
       <c r="Q89" s="41" t="s">
         <v>146</v>
       </c>
@@ -20884,7 +20828,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="90" spans="17:24" x14ac:dyDescent="0.3">
+    <row r="90" spans="17:24">
       <c r="Q90" s="41" t="s">
         <v>153</v>
       </c>
@@ -20907,7 +20851,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="91" spans="17:24" x14ac:dyDescent="0.3">
+    <row r="91" spans="17:24">
       <c r="Q91" s="43"/>
       <c r="R91" s="41" t="s">
         <v>158</v>
@@ -20928,13 +20872,13 @@
         <v>163</v>
       </c>
     </row>
-    <row r="93" spans="17:24" x14ac:dyDescent="0.3">
+    <row r="93" spans="17:24">
       <c r="R93" s="27">
         <f>SUM(R85:R90)</f>
         <v>94.5</v>
       </c>
     </row>
-    <row r="97" spans="17:24" x14ac:dyDescent="0.3">
+    <row r="97" spans="17:24">
       <c r="Q97" s="27" t="s">
         <v>112</v>
       </c>
@@ -20960,7 +20904,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="98" spans="17:24" x14ac:dyDescent="0.3">
+    <row r="98" spans="17:24">
       <c r="Q98" s="27" t="s">
         <v>119</v>
       </c>
@@ -20983,7 +20927,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="99" spans="17:24" x14ac:dyDescent="0.3">
+    <row r="99" spans="17:24">
       <c r="Q99" s="27" t="s">
         <v>125</v>
       </c>
@@ -21006,7 +20950,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="100" spans="17:24" x14ac:dyDescent="0.3">
+    <row r="100" spans="17:24">
       <c r="Q100" s="27" t="s">
         <v>132</v>
       </c>
@@ -21029,7 +20973,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="101" spans="17:24" x14ac:dyDescent="0.3">
+    <row r="101" spans="17:24">
       <c r="Q101" s="27" t="s">
         <v>139</v>
       </c>
@@ -21052,7 +20996,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="102" spans="17:24" x14ac:dyDescent="0.3">
+    <row r="102" spans="17:24">
       <c r="Q102" s="27" t="s">
         <v>146</v>
       </c>
@@ -21075,7 +21019,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="103" spans="17:24" x14ac:dyDescent="0.3">
+    <row r="103" spans="17:24">
       <c r="Q103" s="27" t="s">
         <v>153</v>
       </c>
@@ -21098,7 +21042,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="104" spans="17:24" x14ac:dyDescent="0.3">
+    <row r="104" spans="17:24">
       <c r="R104" s="27" t="s">
         <v>193</v>
       </c>
@@ -21121,13 +21065,13 @@
         <v>243125</v>
       </c>
     </row>
-    <row r="106" spans="17:24" x14ac:dyDescent="0.3">
+    <row r="106" spans="17:24">
       <c r="R106" s="27">
         <f>SUM(R98:R103)</f>
         <v>240.70000000000002</v>
       </c>
     </row>
-    <row r="108" spans="17:24" x14ac:dyDescent="0.3">
+    <row r="108" spans="17:24">
       <c r="Q108" s="27" t="s">
         <v>112</v>
       </c>
@@ -21153,7 +21097,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="109" spans="17:24" x14ac:dyDescent="0.3">
+    <row r="109" spans="17:24">
       <c r="R109" s="27" t="s">
         <v>200</v>
       </c>
@@ -21176,7 +21120,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="113" spans="18:21" x14ac:dyDescent="0.3">
+    <row r="113" spans="18:21">
       <c r="R113" s="27" t="s">
         <v>115</v>
       </c>
@@ -21190,7 +21134,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="114" spans="18:21" x14ac:dyDescent="0.3">
+    <row r="114" spans="18:21">
       <c r="R114" s="27">
         <v>102</v>
       </c>
@@ -21219,7 +21163,7 @@
       <selection activeCell="I25" sqref="I25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
